--- a/data/trans_camb/P37_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P37_R2-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>-9,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-10,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>-12,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-1,32</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-4,36</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-5,13</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-6,74</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 3,81</t>
+          <t>-24,85; 1,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 6,57</t>
+          <t>-25,92; 1,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 8,73</t>
+          <t>-30,23; 0,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 10,2</t>
+          <t>-9,42; 10,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 4,32</t>
+          <t>-10,51; 9,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 5,92</t>
+          <t>-10,96; 9,25</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-12,63; 3,36</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-14,79; 1,63</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-17,5; 1,26</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,13%</t>
+          <t>-14,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,98%</t>
+          <t>-16,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>-19,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,06%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,89%</t>
+          <t>-2,11%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-6,85%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-8,06%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-10,59%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,28; 6,7</t>
+          <t>-34,98; 3,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 11,61</t>
+          <t>-38,35; 3,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 15,97</t>
+          <t>-43,28; 0,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 18,08</t>
+          <t>-14,1; 18,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 7,79</t>
+          <t>-15,77; 16,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 10,61</t>
+          <t>-16,39; 16,05</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-19,08; 5,51</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-22,77; 2,72</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-26,6; 2,14</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,44</t>
+          <t>-7,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-6,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-18,16</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,61</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-3,48</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-9,89</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 11,92</t>
+          <t>-7,31; 17,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 9,98</t>
+          <t>-11,8; 12,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 0,97</t>
+          <t>-13,79; 11,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 2,55</t>
+          <t>-19,28; 3,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 4,3</t>
+          <t>-18,4; 4,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 2,56</t>
+          <t>-31,02; -6,83</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-9,46; 6,68</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-12,09; 5,13</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-19,35; -1,21</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,16%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,09%</t>
+          <t>-1,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,65%</t>
+          <t>-11,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,32%</t>
+          <t>-10,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,67%</t>
+          <t>-26,92%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-2,44%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-5,27%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-14,98%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 18,58</t>
+          <t>-10,63; 30,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 15,84</t>
+          <t>-16,89; 21,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 1,23</t>
+          <t>-19,82; 20,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 4,03</t>
+          <t>-27,18; 4,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 6,65</t>
+          <t>-25,04; 6,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 3,86</t>
+          <t>-43,92; -11,61</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-13,52; 10,69</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-17,2; 8,35</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-27,88; -1,86</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-15,1</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>19,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>-9,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-13,41</t>
+          <t>-7,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,52</t>
+          <t>-19,21</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-9,67</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-8,46</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-9,53</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-35,98; 14,28</t>
+          <t>-43,28; 35,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 30,41</t>
+          <t>-10,11; 57,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 16,48</t>
+          <t>-47,97; 35,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-29,27; 3,23</t>
+          <t>-29,92; 13,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 9,77</t>
+          <t>-40,7; 4,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 10,83</t>
+          <t>-29,7; 10,53</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-31,03; 18,06</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-18,21; 27,79</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-35,1; 16,53</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-21,69%</t>
+          <t>-15,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>33,52%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>-16,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-18,25%</t>
+          <t>-9,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,53%</t>
+          <t>-25,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-6,65%</t>
+          <t>-12,81%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-12,75%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-14,37%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-46,58; 17,69</t>
+          <t>-58,13; 82,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 60,43</t>
+          <t>-13,13; 202,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 26,28</t>
+          <t>-64,33; 82,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,19; 4,53</t>
+          <t>-35,52; 21,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 15,1</t>
+          <t>-49,95; 6,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,53; 17,13</t>
+          <t>-36,55; 16,13</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-42,5; 27,48</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-23,94; 59,62</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-46,61; 27,31</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-7,74</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-4,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-8,72</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-3,65</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-3,82</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-8,29</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 4,2</t>
+          <t>-12,43; 5,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 5,66</t>
+          <t>-12,68; 5,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 2,82</t>
+          <t>-18,64; 1,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 3,01</t>
+          <t>-10,07; 3,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 1,83</t>
+          <t>-10,79; 2,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 2,52</t>
+          <t>-16,83; -2,13</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-9,81; 2,36</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-10,02; 1,45</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-14,59; -2,25</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,36%</t>
+          <t>-5,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,7%</t>
+          <t>-4,39%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,71%</t>
+          <t>-12,13%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,7%</t>
+          <t>-5,62%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,0%</t>
+          <t>-7,13%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,15%</t>
+          <t>-13,26%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-5,63%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-5,89%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-12,78%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 6,73</t>
+          <t>-18,19; 8,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 8,78</t>
+          <t>-19,08; 9,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 4,59</t>
+          <t>-28,03; 2,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 4,96</t>
+          <t>-15,11; 5,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 2,89</t>
+          <t>-15,65; 4,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 4,06</t>
+          <t>-24,21; -3,3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-14,48; 3,58</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-14,76; 2,3</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-21,53; -3,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
